--- a/Test/Book1.xlsx
+++ b/Test/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426168CE-F771-45F1-817C-AC123B774A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D176DB5-34F5-4AE0-BBCF-49057B8C6C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{62BC1FB3-4BB6-46B2-8FC6-7FCBFEEAF1A3}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{62BC1FB3-4BB6-46B2-8FC6-7FCBFEEAF1A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,13 +51,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -86,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,30 +433,30 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
     </row>
